--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Igf1r</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H2">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I2">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J2">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N2">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q2">
-        <v>289.7691831552407</v>
+        <v>13.12717326647</v>
       </c>
       <c r="R2">
-        <v>289.7691831552407</v>
+        <v>118.14455939823</v>
       </c>
       <c r="S2">
-        <v>0.287945951471466</v>
+        <v>0.0118512092598845</v>
       </c>
       <c r="T2">
-        <v>0.287945951471466</v>
+        <v>0.0118512092598845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H3">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I3">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J3">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N3">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q3">
-        <v>301.7178443634214</v>
+        <v>13.16210849899567</v>
       </c>
       <c r="R3">
-        <v>301.7178443634214</v>
+        <v>118.458976490961</v>
       </c>
       <c r="S3">
-        <v>0.2998194315390704</v>
+        <v>0.01188274878044998</v>
       </c>
       <c r="T3">
-        <v>0.2998194315390704</v>
+        <v>0.01188274878044998</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H4">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I4">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J4">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N4">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q4">
-        <v>85.8122611196133</v>
+        <v>3.747342084062333</v>
       </c>
       <c r="R4">
-        <v>85.8122611196133</v>
+        <v>33.72607875656099</v>
       </c>
       <c r="S4">
-        <v>0.08527232919301567</v>
+        <v>0.003383099644157951</v>
       </c>
       <c r="T4">
-        <v>0.08527232919301567</v>
+        <v>0.00338309964415795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H5">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I5">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J5">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N5">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q5">
-        <v>64.61931533062405</v>
+        <v>2.959773883121001</v>
       </c>
       <c r="R5">
-        <v>64.61931533062405</v>
+        <v>26.637964948089</v>
       </c>
       <c r="S5">
-        <v>0.06421272971026322</v>
+        <v>0.002672083238240092</v>
       </c>
       <c r="T5">
-        <v>0.06421272971026322</v>
+        <v>0.002672083238240091</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>24.2714841173736</v>
+        <v>1.056541</v>
       </c>
       <c r="H6">
-        <v>24.2714841173736</v>
+        <v>3.169623</v>
       </c>
       <c r="I6">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="J6">
-        <v>0.873567621447274</v>
+        <v>0.03562122963578939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N6">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q6">
-        <v>137.1803199926252</v>
+        <v>6.460002297053999</v>
       </c>
       <c r="R6">
-        <v>137.1803199926252</v>
+        <v>58.14002067348599</v>
       </c>
       <c r="S6">
-        <v>0.1363171795334587</v>
+        <v>0.005832088713056868</v>
       </c>
       <c r="T6">
-        <v>0.1363171795334587</v>
+        <v>0.005832088713056867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H7">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I7">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J7">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N7">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q7">
-        <v>41.93860458896238</v>
+        <v>303.6469408518933</v>
       </c>
       <c r="R7">
-        <v>41.93860458896238</v>
+        <v>2732.82246766704</v>
       </c>
       <c r="S7">
-        <v>0.04167472631237238</v>
+        <v>0.2741323942414335</v>
       </c>
       <c r="T7">
-        <v>0.04167472631237238</v>
+        <v>0.2741323942414335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H8">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I8">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J8">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N8">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q8">
-        <v>43.66794713781754</v>
+        <v>304.4550338258364</v>
       </c>
       <c r="R8">
-        <v>43.66794713781754</v>
+        <v>2740.095304432528</v>
       </c>
       <c r="S8">
-        <v>0.04339318781413743</v>
+        <v>0.2748619404080941</v>
       </c>
       <c r="T8">
-        <v>0.04339318781413743</v>
+        <v>0.2748619404080941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H9">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I9">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J9">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N9">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q9">
-        <v>12.41970056578518</v>
+        <v>86.68042518014757</v>
       </c>
       <c r="R9">
-        <v>12.41970056578518</v>
+        <v>780.123826621328</v>
       </c>
       <c r="S9">
-        <v>0.01234155563909571</v>
+        <v>0.07825506959442544</v>
       </c>
       <c r="T9">
-        <v>0.01234155563909571</v>
+        <v>0.07825506959442541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.51283792190033</v>
+        <v>24.43903466666667</v>
       </c>
       <c r="H10">
-        <v>3.51283792190033</v>
+        <v>73.317104</v>
       </c>
       <c r="I10">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="J10">
-        <v>0.126432378552726</v>
+        <v>0.8239608930825695</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N10">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q10">
-        <v>9.352422797177296</v>
+        <v>68.46304737354136</v>
       </c>
       <c r="R10">
-        <v>9.352422797177296</v>
+        <v>616.1674263618721</v>
       </c>
       <c r="S10">
-        <v>0.009293577224372766</v>
+        <v>0.06180842474789765</v>
       </c>
       <c r="T10">
-        <v>0.009293577224372766</v>
+        <v>0.06180842474789764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>24.43903466666667</v>
+      </c>
+      <c r="H11">
+        <v>73.317104</v>
+      </c>
+      <c r="I11">
+        <v>0.8239608930825695</v>
+      </c>
+      <c r="J11">
+        <v>0.8239608930825695</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.114294</v>
+      </c>
+      <c r="N11">
+        <v>18.342882</v>
+      </c>
+      <c r="O11">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P11">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q11">
+        <v>149.427443028192</v>
+      </c>
+      <c r="R11">
+        <v>1344.846987253728</v>
+      </c>
+      <c r="S11">
+        <v>0.1349030640907189</v>
+      </c>
+      <c r="T11">
+        <v>0.1349030640907188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.407108</v>
+      </c>
+      <c r="I12">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J12">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.42467</v>
+      </c>
+      <c r="N12">
+        <v>37.27401</v>
+      </c>
+      <c r="O12">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="P12">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="Q12">
+        <v>1.686060851453333</v>
+      </c>
+      <c r="R12">
+        <v>15.17454766308</v>
+      </c>
+      <c r="S12">
+        <v>0.001522175381543187</v>
+      </c>
+      <c r="T12">
+        <v>0.001522175381543187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.407108</v>
+      </c>
+      <c r="I13">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J13">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.45773566666667</v>
+      </c>
+      <c r="N13">
+        <v>37.373207</v>
+      </c>
+      <c r="O13">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="P13">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="Q13">
+        <v>1.690547950595111</v>
+      </c>
+      <c r="R13">
+        <v>15.214931555356</v>
+      </c>
+      <c r="S13">
+        <v>0.001526226333703229</v>
+      </c>
+      <c r="T13">
+        <v>0.001526226333703229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.407108</v>
+      </c>
+      <c r="I14">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J14">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.546802333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.640407</v>
+      </c>
+      <c r="O14">
+        <v>0.09497425211730705</v>
+      </c>
+      <c r="P14">
+        <v>0.09497425211730702</v>
+      </c>
+      <c r="Q14">
+        <v>0.4813105347728889</v>
+      </c>
+      <c r="R14">
+        <v>4.331794812956</v>
+      </c>
+      <c r="S14">
+        <v>0.0004345270494105624</v>
+      </c>
+      <c r="T14">
+        <v>0.0004345270494105624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.407108</v>
+      </c>
+      <c r="I15">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J15">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.801381000000001</v>
+      </c>
+      <c r="N15">
+        <v>8.404143000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.07501378435166073</v>
+      </c>
+      <c r="P15">
+        <v>0.07501378435166071</v>
+      </c>
+      <c r="Q15">
+        <v>0.3801548720493334</v>
+      </c>
+      <c r="R15">
+        <v>3.421393848444001</v>
+      </c>
+      <c r="S15">
+        <v>0.0003432037384109868</v>
+      </c>
+      <c r="T15">
+        <v>0.0003432037384109868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1357026666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.407108</v>
+      </c>
+      <c r="I16">
+        <v>0.004575208961623179</v>
+      </c>
+      <c r="J16">
+        <v>0.00457520896162318</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.114294</v>
+      </c>
+      <c r="N16">
+        <v>18.342882</v>
+      </c>
+      <c r="O16">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P16">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q16">
+        <v>0.829726000584</v>
+      </c>
+      <c r="R16">
+        <v>7.467534005256001</v>
+      </c>
+      <c r="S16">
+        <v>0.0007490764585552147</v>
+      </c>
+      <c r="T16">
+        <v>0.0007490764585552147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>4.029152</v>
+      </c>
+      <c r="H17">
+        <v>12.087456</v>
+      </c>
+      <c r="I17">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J17">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.42467</v>
+      </c>
+      <c r="N17">
+        <v>37.27401</v>
+      </c>
+      <c r="O17">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="P17">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="Q17">
+        <v>50.06088397983999</v>
+      </c>
+      <c r="R17">
+        <v>450.54795581856</v>
+      </c>
+      <c r="S17">
+        <v>0.04519495551226328</v>
+      </c>
+      <c r="T17">
+        <v>0.04519495551226328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.51283792190033</v>
-      </c>
-      <c r="H11">
-        <v>3.51283792190033</v>
-      </c>
-      <c r="I11">
-        <v>0.126432378552726</v>
-      </c>
-      <c r="J11">
-        <v>0.126432378552726</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.6519131392724</v>
-      </c>
-      <c r="N11">
-        <v>5.6519131392724</v>
-      </c>
-      <c r="O11">
-        <v>0.1560465110962065</v>
-      </c>
-      <c r="P11">
-        <v>0.1560465110962065</v>
-      </c>
-      <c r="Q11">
-        <v>19.85425480692283</v>
-      </c>
-      <c r="R11">
-        <v>19.85425480692283</v>
-      </c>
-      <c r="S11">
-        <v>0.01972933156274774</v>
-      </c>
-      <c r="T11">
-        <v>0.01972933156274774</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.029152</v>
+      </c>
+      <c r="H18">
+        <v>12.087456</v>
+      </c>
+      <c r="I18">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J18">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.45773566666667</v>
+      </c>
+      <c r="N18">
+        <v>37.373207</v>
+      </c>
+      <c r="O18">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="P18">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="Q18">
+        <v>50.19411057682133</v>
+      </c>
+      <c r="R18">
+        <v>451.746995191392</v>
+      </c>
+      <c r="S18">
+        <v>0.04531523245595542</v>
+      </c>
+      <c r="T18">
+        <v>0.04531523245595542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.029152</v>
+      </c>
+      <c r="H19">
+        <v>12.087456</v>
+      </c>
+      <c r="I19">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J19">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.546802333333333</v>
+      </c>
+      <c r="N19">
+        <v>10.640407</v>
+      </c>
+      <c r="O19">
+        <v>0.09497425211730705</v>
+      </c>
+      <c r="P19">
+        <v>0.09497425211730702</v>
+      </c>
+      <c r="Q19">
+        <v>14.29060571495467</v>
+      </c>
+      <c r="R19">
+        <v>128.615451434592</v>
+      </c>
+      <c r="S19">
+        <v>0.0129015558293131</v>
+      </c>
+      <c r="T19">
+        <v>0.0129015558293131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.029152</v>
+      </c>
+      <c r="H20">
+        <v>12.087456</v>
+      </c>
+      <c r="I20">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J20">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.801381000000001</v>
+      </c>
+      <c r="N20">
+        <v>8.404143000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.07501378435166073</v>
+      </c>
+      <c r="P20">
+        <v>0.07501378435166071</v>
+      </c>
+      <c r="Q20">
+        <v>11.287189858912</v>
+      </c>
+      <c r="R20">
+        <v>101.584708730208</v>
+      </c>
+      <c r="S20">
+        <v>0.010190072627112</v>
+      </c>
+      <c r="T20">
+        <v>0.010190072627112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.029152</v>
+      </c>
+      <c r="H21">
+        <v>12.087456</v>
+      </c>
+      <c r="I21">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="J21">
+        <v>0.135842668320018</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.114294</v>
+      </c>
+      <c r="N21">
+        <v>18.342882</v>
+      </c>
+      <c r="O21">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P21">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q21">
+        <v>24.635419898688</v>
+      </c>
+      <c r="R21">
+        <v>221.718779088192</v>
+      </c>
+      <c r="S21">
+        <v>0.02224085189537416</v>
+      </c>
+      <c r="T21">
+        <v>0.02224085189537415</v>
       </c>
     </row>
   </sheetData>
